--- a/dataset/processed/cleaned/Cleaned Loans Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Loans Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,297 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001-001-007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jalal 222-003-001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2020-11-22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>APON-030-001-0002-03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>7125</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001-001-008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jamal Khan 222-004-001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-12-22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>APON-030-001-0003-06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>21520</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001-001-009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Amir Hossen 222-001-002</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>APON-030-001-0007-18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>29760</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/processed/cleaned/Cleaned Loans Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Loans Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,110 +441,115 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>System Generated Samity Information</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Member Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>System Generated Member Information</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Loans Product</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Disbursement Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Loan Code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Repayment Frequency</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Loan Repay Period</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>First Repay Date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Loan Cycle</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Loan Amount</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>No Of Repayment</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Insurance Amount</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Loan Purpose</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Folio Number</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Interest Discount Amount</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Installment Amount</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Opening Loan Outstanding</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Extra Installment Amount</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Guarantor Name</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Relation</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
@@ -553,293 +558,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>001-001-007</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jalal 222-003-001</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Jalal 222-003-002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ME-M-12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2020-11-22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>APON-030-001-0002-03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2020-11-22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>APON-030-001-0002-03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Agricultural tools</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>7125</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>7.37</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>222-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>222-004 - samity4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>001-001-008</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jamal Khan 222-004-001</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Jamal Khan 222-004-002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>ME-M-24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2020-12-22</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>APON-030-001-0003-06</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2021-01-09</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>40000</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>400</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Banana cultivation</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>21520</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>19.66</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>001-001-009</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Amir Hossen 222-001-002</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Amir Hossen 222-001-003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>APON-030-001-0007-18</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2020-12-12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>60000</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Betel leaf cultivation</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29760</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>29.49</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataset/processed/cleaned/Cleaned Loans Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Loans Data.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ME-M-12</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>13760</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>7125</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/dataset/processed/cleaned/Cleaned Loans Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Loans Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,312 +555,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>222-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>222-003 - samity3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>001-001-007</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Jalal 222-003-002</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ME-W</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020-11-22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>APON-030-001-0002-03</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>550000</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Agricultural tools</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>13760</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>222-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>222-004 - samity4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>001-001-008</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Jamal Khan 222-004-002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ME-M-24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2020-12-22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>APON-030-001-0003-06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2021-01-09</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Banana cultivation</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>21520</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>19.66</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>222-003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>222-001 - samity1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>001-001-009</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Amir Hossen 222-001-003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-11-23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>APON-030-001-0007-18</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Betel leaf cultivation</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>29760</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>29.49</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/processed/cleaned/Cleaned Loans Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Loans Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,300 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>222-004 - samity4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jamal Khan 222-004-001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ME-W</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2015-01-18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SME-001-001-008-1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2015-02-04</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Fish farming</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>47448</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bappi Pal 222-001-001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>JAGO-W</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>JAGO-W-001-005-005-1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Cow fattening</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>67500</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bandana Pal 222-001-002</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>JAGO-W</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JAGO-W-001-005-008-1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Litchi garden</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>33750</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
